--- a/dev/energyscope_data/CH/unit_conversion_3.8.xlsx
+++ b/dev/energyscope_data/CH/unit_conversion_3.8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="497">
   <si>
     <t>Name</t>
   </si>
@@ -1462,7 +1462,7 @@
     <t>Refinery sludge LHV (2.453 MJ/kg): \cite{wernet2016}</t>
   </si>
   <si>
-    <t>LHV wet wood (8.279 MJ/kg): \cite{moret2017}</t>
+    <t>HHV manure (15 MJ/kg): \cite{marin-batista2020}, LHV-to-HHV ratio (0.95)</t>
   </si>
   <si>
     <t>LHV wood (15.4 MJ/kg): \cite{engineeringtoolbox2003}</t>
@@ -1496,9 +1496,6 @@
   </si>
   <si>
     <t>lignite HHV (3.89 kWh/kg): \cite{engineeringtoolbox2003}, LHV-to-HHV ratio (0.95)</t>
-  </si>
-  <si>
-    <t>HHV manure (15 MJ/kg): \cite{marin-batista2020}, LHV-to-HHV ratio (0.95)</t>
   </si>
   <si>
     <t>LHV natural gas (13.1 kWh/kg), density natural gas (0.777 kg/m3): \cite{engineeringtoolbox2003}</t>
@@ -11563,7 +11560,7 @@
         <v>347</v>
       </c>
       <c r="C484">
-        <f>1 * 3.6 / 8.279</f>
+        <f>1 * 3.6 / (0.95*15) / 1000000</f>
         <v>0</v>
       </c>
       <c r="D484" t="s">
@@ -11996,7 +11993,7 @@
         <v>356</v>
       </c>
       <c r="F505" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -12017,7 +12014,7 @@
         <v>356</v>
       </c>
       <c r="F506" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -12122,7 +12119,7 @@
         <v>356</v>
       </c>
       <c r="F511" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -12143,7 +12140,7 @@
         <v>353</v>
       </c>
       <c r="F512" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -12164,7 +12161,7 @@
         <v>351</v>
       </c>
       <c r="F513" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="514" spans="1:6">
